--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3014.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3014.xlsx
@@ -354,7 +354,7 @@
         <v>2.309463873409445</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.295164026451891</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3014.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3014.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.16820084886014</v>
+        <v>1.251060366630554</v>
       </c>
       <c r="B1">
-        <v>2.309463873409445</v>
+        <v>1.765236139297485</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>1.91124427318573</v>
       </c>
       <c r="D1">
-        <v>2.295164026451891</v>
+        <v>7.081009387969971</v>
       </c>
       <c r="E1">
-        <v>1.202023855851944</v>
+        <v>1.670521020889282</v>
       </c>
     </row>
   </sheetData>
